--- a/biology/Botanique/Psilolechia_leprosa/Psilolechia_leprosa.xlsx
+++ b/biology/Botanique/Psilolechia_leprosa/Psilolechia_leprosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psilolechia leprosa est une espèce de lichen de la famille des Pilocarpaceae. Cette espèce semble préférer les sites siliceux ou peu calcaires, et riches en métaux tels que le cuivre ou le fer[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psilolechia leprosa est une espèce de lichen de la famille des Pilocarpaceae. Cette espèce semble préférer les sites siliceux ou peu calcaires, et riches en métaux tels que le cuivre ou le fer. 
 </t>
         </is>
       </c>
